--- a/dev.xlsx
+++ b/dev.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="category" sheetId="1" r:id="rId1"/>
+    <sheet name="Note chung" sheetId="3" r:id="rId1"/>
+    <sheet name="category" sheetId="1" r:id="rId2"/>
+    <sheet name="customer" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -114,6 +116,15 @@
   </si>
   <si>
     <t>danh mục cha (0 nếu nó ko có cha)</t>
+  </si>
+  <si>
+    <t>jquery validate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bộ lọc theo name chứ không phải theo id</t>
+  </si>
+  <si>
+    <t>digits: ký tự số ko bao gồm ký tự chữ, dấu phẩy</t>
   </si>
 </sst>
 </file>
@@ -484,6 +495,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -601,4 +644,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>